--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE43DDE-A1B2-4BC3-B994-4ABB0E802C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8037AB1D-7A73-4A96-AC5B-ACE6FA8C971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>OffsetY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DestroyTime</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -137,9 +141,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:I3" totalsRowShown="0">
+  <autoFilter ref="A1:I3" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{D18CCB9A-152D-4FAE-8865-FD48E5077B90}" name="ID"/>
     <tableColumn id="14" xr3:uid="{874189BD-E80E-44D6-88BB-C7ACDE1B276A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8E8BDF28-1CFF-42DD-BC8B-D60A13180212}" name="ResourceName"/>
@@ -148,6 +152,7 @@
     <tableColumn id="4" xr3:uid="{668FD899-91DB-4E89-8F15-A2EDDB8CA0B8}" name="PosZ"/>
     <tableColumn id="5" xr3:uid="{ED77A6C5-DB17-4FF6-9C0D-0D77EECB4432}" name="Angle"/>
     <tableColumn id="6" xr3:uid="{2F1C204E-4747-4576-8AE6-2DB68F61C3F0}" name="OffsetY"/>
+    <tableColumn id="7" xr3:uid="{1027C38A-CBC8-49B1-B971-7588281AA21D}" name="DestroyTime"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -450,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DA24F-8EDE-43C5-83A6-BC8E8B64C0DC}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -461,7 +466,7 @@
     <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,8 +491,11 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -508,6 +516,35 @@
       </c>
       <c r="H2">
         <v>0.5</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>10</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8037AB1D-7A73-4A96-AC5B-ACE6FA8C971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE43DDE-A1B2-4BC3-B994-4ABB0E802C87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -69,10 +69,6 @@
   </si>
   <si>
     <t>OffsetY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DestroyTime</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -141,9 +137,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{D18CCB9A-152D-4FAE-8865-FD48E5077B90}" name="ID"/>
     <tableColumn id="14" xr3:uid="{874189BD-E80E-44D6-88BB-C7ACDE1B276A}" name="ItemID"/>
     <tableColumn id="2" xr3:uid="{8E8BDF28-1CFF-42DD-BC8B-D60A13180212}" name="ResourceName"/>
@@ -152,7 +148,6 @@
     <tableColumn id="4" xr3:uid="{668FD899-91DB-4E89-8F15-A2EDDB8CA0B8}" name="PosZ"/>
     <tableColumn id="5" xr3:uid="{ED77A6C5-DB17-4FF6-9C0D-0D77EECB4432}" name="Angle"/>
     <tableColumn id="6" xr3:uid="{2F1C204E-4747-4576-8AE6-2DB68F61C3F0}" name="OffsetY"/>
-    <tableColumn id="7" xr3:uid="{1027C38A-CBC8-49B1-B971-7588281AA21D}" name="DestroyTime"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -455,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DA24F-8EDE-43C5-83A6-BC8E8B64C0DC}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -466,7 +461,7 @@
     <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,11 +486,8 @@
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -516,35 +508,6 @@
       </c>
       <c r="H2">
         <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.5</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8037AB1D-7A73-4A96-AC5B-ACE6FA8C971A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC70C2F-4F1F-4F21-905C-818568B6DDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
+    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,13 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ResourceName</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -52,27 +48,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Angle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ItemID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PosY</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Prefabs/Game/Scene/Craft</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OffsetY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DestroyTime</t>
+    <t>Relation</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -141,18 +121,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:I3" totalsRowShown="0">
-  <autoFilter ref="A1:I3" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:E3" totalsRowShown="0">
+  <autoFilter ref="A1:E3" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D18CCB9A-152D-4FAE-8865-FD48E5077B90}" name="ID"/>
-    <tableColumn id="14" xr3:uid="{874189BD-E80E-44D6-88BB-C7ACDE1B276A}" name="ItemID"/>
-    <tableColumn id="2" xr3:uid="{8E8BDF28-1CFF-42DD-BC8B-D60A13180212}" name="ResourceName"/>
+    <tableColumn id="14" xr3:uid="{874189BD-E80E-44D6-88BB-C7ACDE1B276A}" name="Relation"/>
     <tableColumn id="3" xr3:uid="{C802A0E7-32B6-4F3E-8AF6-1F855C682185}" name="PosX"/>
     <tableColumn id="15" xr3:uid="{DA37F15F-BC55-4BB6-97C9-EC0C4806B692}" name="PosY"/>
     <tableColumn id="4" xr3:uid="{668FD899-91DB-4E89-8F15-A2EDDB8CA0B8}" name="PosZ"/>
-    <tableColumn id="5" xr3:uid="{ED77A6C5-DB17-4FF6-9C0D-0D77EECB4432}" name="Angle"/>
-    <tableColumn id="6" xr3:uid="{2F1C204E-4747-4576-8AE6-2DB68F61C3F0}" name="OffsetY"/>
-    <tableColumn id="7" xr3:uid="{1027C38A-CBC8-49B1-B971-7588281AA21D}" name="DestroyTime"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -455,96 +431,46 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DA24F-8EDE-43C5-83A6-BC8E8B64C0DC}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="3" max="3" width="26.75" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
       </c>
       <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0.5</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3">
         <v>15</v>
       </c>
-      <c r="F3">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0.5</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
+      <c r="E2">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC70C2F-4F1F-4F21-905C-818568B6DDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C1979C-6D02-4F9E-AC43-04A91E91B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="3075" windowWidth="21600" windowHeight="11385" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
+    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -53,6 +54,59 @@
   </si>
   <si>
     <t>Relation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この設定ファイルは固定の設計図をマップに追加します。</t>
+    <rPh sb="2" eb="4">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>唯一のID</t>
+    <rPh sb="0" eb="2">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Blueprint設計図の唯一ID</t>
+    <rPh sb="9" eb="12">
+      <t>セッケイズ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ユイイツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PosX、Y、Z</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定する場所の座標</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ザヒョウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -433,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DA24F-8EDE-43C5-83A6-BC8E8B64C0DC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -481,4 +535,56 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45B932F-B2F9-4C71-94FC-17DACD66A5B2}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3C1979C-6D02-4F9E-AC43-04A91E91B514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64967DFB-1F0A-4E20-B090-F028BA675237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -78,9 +78,6 @@
       <t>ユイイツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Relation</t>
   </si>
   <si>
     <t>Blueprint設計図の唯一ID</t>
@@ -114,7 +111,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,21 +127,60 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -153,8 +189,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -488,7 +530,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -542,10 +584,13 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
@@ -553,7 +598,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -563,23 +608,23 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>7</v>
+      <c r="A5" s="2" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A7" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64967DFB-1F0A-4E20-B090-F028BA675237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4D7344-0D78-4567-9A53-F5AE036BC556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4500" yWindow="2505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -529,13 +520,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DA24F-8EDE-43C5-83A6-BC8E8B64C0DC}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -552,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -560,13 +551,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -583,46 +574,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D45B932F-B2F9-4C71-94FC-17DACD66A5B2}">
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>9</v>
       </c>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pckan\Documents\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4D7344-0D78-4567-9A53-F5AE036BC556}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18174A6-8531-40E5-AD2E-ADFF7B97B18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -521,12 +521,12 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -551,13 +551,13 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -578,42 +578,42 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>9</v>
       </c>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18174A6-8531-40E5-AD2E-ADFF7B97B18C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10C3944-6635-419A-866E-84B92E84D98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
+    <workbookView xWindow="22580" yWindow="-7560" windowWidth="20290" windowHeight="13610" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -208,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:E3" totalsRowShown="0">
-  <autoFilter ref="A1:E3" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:E15" totalsRowShown="0">
+  <autoFilter ref="A1:E15" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D18CCB9A-152D-4FAE-8865-FD48E5077B90}" name="ID"/>
     <tableColumn id="14" xr3:uid="{874189BD-E80E-44D6-88BB-C7ACDE1B276A}" name="Relation"/>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DA24F-8EDE-43C5-83A6-BC8E8B64C0DC}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -558,6 +558,227 @@
       </c>
       <c r="E2">
         <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>77</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>80</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>90</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>64</v>
+      </c>
+      <c r="D10">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>11</v>
+      </c>
+      <c r="E11">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>54</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>23</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>40</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\github\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10C3944-6635-419A-866E-84B92E84D98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F44E1E-027F-4600-8019-10931834BDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22580" yWindow="-7560" windowWidth="20290" windowHeight="13610" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="27435" windowHeight="14760" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -208,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:E15" totalsRowShown="0">
-  <autoFilter ref="A1:E15" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:E16" totalsRowShown="0">
+  <autoFilter ref="A1:E16" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D18CCB9A-152D-4FAE-8865-FD48E5077B90}" name="ID"/>
     <tableColumn id="14" xr3:uid="{874189BD-E80E-44D6-88BB-C7ACDE1B276A}" name="Relation"/>
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DA24F-8EDE-43C5-83A6-BC8E8B64C0DC}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -779,6 +779,23 @@
       </c>
       <c r="E15">
         <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>29</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03F44E1E-027F-4600-8019-10931834BDB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97612063-0D91-475E-A057-4E2C36D30148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="27435" windowHeight="14760" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +139,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -180,7 +186,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,6 +194,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -208,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:E16" totalsRowShown="0">
-  <autoFilter ref="A1:E16" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:E18" totalsRowShown="0">
+  <autoFilter ref="A1:E18" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{D18CCB9A-152D-4FAE-8865-FD48E5077B90}" name="ID"/>
     <tableColumn id="14" xr3:uid="{874189BD-E80E-44D6-88BB-C7ACDE1B276A}" name="Relation"/>
@@ -518,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DA24F-8EDE-43C5-83A6-BC8E8B64C0DC}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -796,6 +805,40 @@
       </c>
       <c r="E16">
         <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>9</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97612063-0D91-475E-A057-4E2C36D30148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6F6F1F-6ECB-4574-A97D-EF3EB455A02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
@@ -530,7 +530,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -832,13 +832,13 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Unity\CraftStory\Config\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A6F6F1F-6ECB-4574-A97D-EF3EB455A02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538FF6E-E649-4FEF-A885-58725D2E1E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
+    <workbookView xWindow="3120" yWindow="1125" windowWidth="15330" windowHeight="15075" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -94,6 +103,298 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ザヒョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>memo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金塊</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カタマリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>銀塊</t>
+    <rPh sb="0" eb="1">
+      <t>ギン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カタマリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>銅塊</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>カタマリ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>春・家</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>夏・家</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秋・家</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>冬・家</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イエ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>春・村</t>
+    <rPh sb="2" eb="3">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>夏・村</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>秋・村</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>冬・村</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>砂・村</t>
+    <rPh sb="0" eb="1">
+      <t>スナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>白砂・村</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>スナ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>春・木(大)</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>春・木(小)</t>
+    <rPh sb="0" eb="1">
+      <t>ハル</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>夏・木(大)</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>夏・木(小)</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>秋・木(大)</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>秋・木(小)</t>
+    <rPh sb="0" eb="1">
+      <t>アキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>冬・木(大)</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>冬・木(小)</t>
+    <rPh sb="0" eb="1">
+      <t>フユ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ショウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>砂漠・サボテン</t>
+    <rPh sb="0" eb="2">
+      <t>サバク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>左</t>
+    <rPh sb="0" eb="1">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>真ん中</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左上</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上</t>
+    <rPh sb="0" eb="1">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右上</t>
+    <rPh sb="0" eb="2">
+      <t>ミギウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>右下</t>
+    <rPh sb="0" eb="2">
+      <t>ミギシタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下</t>
+    <rPh sb="0" eb="1">
+      <t>シタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>左下</t>
+    <rPh sb="0" eb="2">
+      <t>ヒダリシタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -102,7 +403,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +425,21 @@
       <color theme="0"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -186,7 +502,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,6 +513,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -217,14 +537,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:E18" totalsRowShown="0">
-  <autoFilter ref="A1:E18" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:F58" totalsRowShown="0">
+  <autoFilter ref="A1:F58" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D18CCB9A-152D-4FAE-8865-FD48E5077B90}" name="ID"/>
     <tableColumn id="14" xr3:uid="{874189BD-E80E-44D6-88BB-C7ACDE1B276A}" name="Relation"/>
     <tableColumn id="3" xr3:uid="{C802A0E7-32B6-4F3E-8AF6-1F855C682185}" name="PosX"/>
     <tableColumn id="15" xr3:uid="{DA37F15F-BC55-4BB6-97C9-EC0C4806B692}" name="PosY"/>
     <tableColumn id="4" xr3:uid="{668FD899-91DB-4E89-8F15-A2EDDB8CA0B8}" name="PosZ"/>
+    <tableColumn id="2" xr3:uid="{72CF9773-907D-40BA-852A-F9FF873CEAD4}" name="memo"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -527,15 +848,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DA24F-8EDE-43C5-83A6-BC8E8B64C0DC}">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -551,8 +872,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -569,7 +893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -586,7 +910,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -603,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -620,7 +944,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -637,7 +961,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -654,7 +978,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -671,7 +995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -688,7 +1012,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -705,7 +1029,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -722,7 +1046,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -739,7 +1063,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -756,7 +1080,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -773,7 +1097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -790,7 +1114,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -807,7 +1131,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -824,7 +1148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -839,6 +1163,764 @@
       </c>
       <c r="E18">
         <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
+        <v>26</v>
+      </c>
+      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20">
+        <v>15</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
+        <v>28</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>15</v>
+      </c>
+      <c r="F21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
+        <v>26</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
+        <v>27</v>
+      </c>
+      <c r="C23">
+        <v>15</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
+        <v>28</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>29</v>
+      </c>
+      <c r="C25">
+        <v>15</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>15</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
+      </c>
+      <c r="F26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>15</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>33</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A29" s="5">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>14</v>
+      </c>
+      <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A30" s="5">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>34</v>
+      </c>
+      <c r="C30">
+        <v>15</v>
+      </c>
+      <c r="D30">
+        <v>14</v>
+      </c>
+      <c r="E30">
+        <v>15</v>
+      </c>
+      <c r="F30" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>35</v>
+      </c>
+      <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>14</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A32" s="5">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>36</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+      <c r="E32">
+        <v>15</v>
+      </c>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A33" s="5">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>37</v>
+      </c>
+      <c r="C33">
+        <v>15</v>
+      </c>
+      <c r="D33">
+        <v>14</v>
+      </c>
+      <c r="E33">
+        <v>15</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A34" s="5">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>38</v>
+      </c>
+      <c r="C34">
+        <v>15</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="E34">
+        <v>15</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A35" s="5">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
+        <v>17</v>
+      </c>
+      <c r="C35">
+        <v>8</v>
+      </c>
+      <c r="D35">
+        <v>20</v>
+      </c>
+      <c r="E35">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A36" s="5">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>18</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>17</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A37" s="5">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>8</v>
+      </c>
+      <c r="D37">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>8</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A38" s="5">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
+        <v>20</v>
+      </c>
+      <c r="C38">
+        <v>18</v>
+      </c>
+      <c r="D38">
+        <v>20</v>
+      </c>
+      <c r="E38">
+        <v>17</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A39" s="5">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
+        <v>21</v>
+      </c>
+      <c r="C39">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>20</v>
+      </c>
+      <c r="E39">
+        <v>8</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A40" s="5">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
+        <v>22</v>
+      </c>
+      <c r="C40">
+        <v>18</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>17</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A41" s="5">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
+        <v>25</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+      <c r="D41">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>8</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A42" s="5">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
+        <v>17</v>
+      </c>
+      <c r="C42">
+        <v>8</v>
+      </c>
+      <c r="D42">
+        <v>15</v>
+      </c>
+      <c r="E42">
+        <v>8</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A43" s="5">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>18</v>
+      </c>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43">
+        <v>17</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A44" s="5">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
+        <v>19</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>15</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A45" s="5">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
+        <v>20</v>
+      </c>
+      <c r="C45">
+        <v>18</v>
+      </c>
+      <c r="D45">
+        <v>15</v>
+      </c>
+      <c r="E45">
+        <v>17</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A46" s="5">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>21</v>
+      </c>
+      <c r="C46">
+        <v>8</v>
+      </c>
+      <c r="D46">
+        <v>15</v>
+      </c>
+      <c r="E46">
+        <v>8</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A47" s="5">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>18</v>
+      </c>
+      <c r="D47">
+        <v>15</v>
+      </c>
+      <c r="E47">
+        <v>17</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A48" s="5">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>8</v>
+      </c>
+      <c r="D48">
+        <v>15</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A49" s="5">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>24</v>
+      </c>
+      <c r="C49">
+        <v>18</v>
+      </c>
+      <c r="D49">
+        <v>15</v>
+      </c>
+      <c r="E49">
+        <v>17</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A50" s="5">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>8</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50">
+        <v>8</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>31</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51">
+        <v>15</v>
+      </c>
+      <c r="F51" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A52" s="5">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>31</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A53" s="5">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>31</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>31</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A55" s="5">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>31</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A56" s="5">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>31</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>31</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A58" s="5">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>31</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="F58" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8538FF6E-E649-4FEF-A885-58725D2E1E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD52A854-A02B-4F5A-9F13-716CFCB187C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="1125" windowWidth="15330" windowHeight="15075" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
+    <workbookView xWindow="19410" yWindow="165" windowWidth="9375" windowHeight="15075" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="説明" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -338,65 +338,6 @@
       <t>サバク</t>
     </rPh>
     <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>左</t>
-    <rPh sb="0" eb="1">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>真ん中</t>
-    <rPh sb="0" eb="1">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左上</t>
-    <rPh sb="0" eb="2">
-      <t>ヒダリウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上</t>
-    <rPh sb="0" eb="1">
-      <t>ウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右上</t>
-    <rPh sb="0" eb="2">
-      <t>ミギウエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>右下</t>
-    <rPh sb="0" eb="2">
-      <t>ミギシタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>下</t>
-    <rPh sb="0" eb="1">
-      <t>シタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>左下</t>
-    <rPh sb="0" eb="2">
-      <t>ヒダリシタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -537,8 +478,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:F58" totalsRowShown="0">
-  <autoFilter ref="A1:F58" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}" name="テーブル1" displayName="テーブル1" ref="A1:F50" totalsRowShown="0">
+  <autoFilter ref="A1:F50" xr:uid="{D09E6424-B27A-4FEB-9A9A-2ED10AE93043}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D18CCB9A-152D-4FAE-8865-FD48E5077B90}" name="ID"/>
     <tableColumn id="14" xr3:uid="{874189BD-E80E-44D6-88BB-C7ACDE1B276A}" name="Relation"/>
@@ -848,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{876DA24F-8EDE-43C5-83A6-BC8E8B64C0DC}">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1803,124 +1744,6 @@
       </c>
       <c r="F50" s="4" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>31</v>
-      </c>
-      <c r="C51">
-        <v>15</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51">
-        <v>15</v>
-      </c>
-      <c r="F51" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="5">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>31</v>
-      </c>
-      <c r="D52">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="5">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>31</v>
-      </c>
-      <c r="D53">
-        <v>4</v>
-      </c>
-      <c r="F53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>31</v>
-      </c>
-      <c r="D54">
-        <v>4</v>
-      </c>
-      <c r="F54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="5">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>31</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="5">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>31</v>
-      </c>
-      <c r="D56">
-        <v>4</v>
-      </c>
-      <c r="F56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>31</v>
-      </c>
-      <c r="D57">
-        <v>4</v>
-      </c>
-      <c r="F57" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="5">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>31</v>
-      </c>
-      <c r="D58">
-        <v>4</v>
-      </c>
-      <c r="F58" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Excel/Building.xlsx
+++ b/Config/Excel/Building.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityWork\CraftStory\Config\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD52A854-A02B-4F5A-9F13-716CFCB187C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A47FF59-E0D3-4127-A0CA-4D4266E8353A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19410" yWindow="165" windowWidth="9375" windowHeight="15075" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
+    <workbookView xWindow="6075" yWindow="105" windowWidth="22395" windowHeight="14325" xr2:uid="{57270C41-08B6-407E-8169-FEE387EAADB9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -792,7 +792,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD58"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1177,7 +1177,7 @@
         <v>15</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22">
         <v>15</v>
@@ -1197,7 +1197,7 @@
         <v>15</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>15</v>
@@ -1217,7 +1217,7 @@
         <v>15</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>15</v>
